--- a/ml/que.xlsx
+++ b/ml/que.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71567497-725B-4946-9EE7-07DD4FD0F4E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D873F67-C8F0-4189-B02C-0B660D443326}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,7 +229,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,13 +509,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,26 +538,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B2">
         <f ca="1">NORMINV(RAND(), $J$2,$K$2)</f>
-        <v>-0.31611715165674897</v>
+        <v>12.263085761954557</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:F2" ca="1" si="0">NORMINV(RAND(), $J$2,$K$2)</f>
-        <v>-0.57395619018066912</v>
+        <v>8.4651848339804623</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6005816431220614</v>
+        <v>16.140896636185204</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.801322330011939</v>
+        <v>12.41126248323738</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7125568898408425</v>
+        <v>7.5186463705975362</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -566,26 +566,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B3">
         <f t="shared" ref="B3:F31" ca="1" si="1">NORMINV(RAND(), $J$2,$K$2)</f>
-        <v>-5.1962476220708265</v>
+        <v>10.689824703884907</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>11.872059754608152</v>
+        <v>-12.566240621173728</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.529139232072867</v>
+        <v>-7.5747256306701995</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11228810155978938</v>
+        <v>1.6675601584298367</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2097355701546322</v>
+        <v>1.1538568143993124</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -594,623 +594,623 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>17.327297947646439</v>
+        <v>4.9900068641619741</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.259298689170066</v>
+        <v>-3.9323448765671443</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>11.035332625522491</v>
+        <v>-12.651004354256578</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.2597032593830111</v>
+        <v>1.9411617505849552</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>21.671341386897716</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+        <v>-2.2806699598437055</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.151952270572405</v>
+        <v>1.5216538712065315</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.5794760192891841</v>
+        <v>-13.654521474761145</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4748176704804719</v>
+        <v>19.559777140432683</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.237777326287854</v>
+        <v>-3.9540606846678328</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.7627315374639139</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+        <v>-0.16370160894883751</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4621922448088966</v>
+        <v>-2.3303854098463974</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.399190227106125</v>
+        <v>0.60178913641123222</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>5.830524863047712</v>
+        <v>5.4823595097061872</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.032993607448201</v>
+        <v>-14.266221792417886</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69587044783313878</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+        <v>10.434417637404394</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0237943484913163</v>
+        <v>-1.0561648165691881</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.089305333018461</v>
+        <v>-10.373037809054351</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29719084211354174</v>
+        <v>-4.1999141751505089</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.501974215705344</v>
+        <v>3.5956318718121101</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>16.75664646449555</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+        <v>-18.191555016384616</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4187651704381277</v>
+        <v>-0.55404077009722852</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>3.673043426722598</v>
+        <v>-2.4092805627331626</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4129456730507859</v>
+        <v>0.11704506329151475</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>16.5718241313261</v>
+        <v>-10.148061876954973</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5473209705232449</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+        <v>-0.87486521016419538</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>12.930702799902509</v>
+        <v>7.7253037502097293</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9889265745980431</v>
+        <v>-12.841924469345766</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>-13.161872370418264</v>
+        <v>-5.8320943242219405</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8681403245382731</v>
+        <v>11.041178918193463</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9801055231169995</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+        <v>-5.806458271071115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>15.255944295425243</v>
+        <v>4.6027587727516206</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4028109610522908</v>
+        <v>-1.9238299775258358</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2530246284281965</v>
+        <v>-7.8382452534511753</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.8584846949907163</v>
+        <v>-7.3885515585197776</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>3.530865193594261</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+        <v>0.99072670158244436</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1883569608714142</v>
+        <v>-3.375191190209974</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1337164846013947</v>
+        <v>-3.8784727603364537</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.5273739480601574</v>
+        <v>1.1279117192177086</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.096377005617555</v>
+        <v>6.193354605440172</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.020846166938416</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+        <v>6.2364494636671655</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>18.282857940646917</v>
+        <v>-1.4126740414839905</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>18.022086488661746</v>
+        <v>-10.764928708975068</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.723979268563426</v>
+        <v>2.8427016707121631</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9066065060529938</v>
+        <v>-3.3448970242661327</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>5.550004927088624</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+        <v>2.7431762436485743</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1728179041247655</v>
+        <v>-3.0188920651803293</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.214938126286651</v>
+        <v>4.5709918591128522</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>-10.72610553470258</v>
+        <v>13.810390073483745</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9825061291983879</v>
+        <v>9.5224350340075823</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.2988413698073775</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+        <v>-1.2871383085412422</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>16.15057160653198</v>
+        <v>-8.9078387838216031</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7122028634241335</v>
+        <v>14.135640371069407</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>17.648045132896058</v>
+        <v>-5.9706666024968866</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8757323331741107</v>
+        <v>-5.5175417435972607</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>2.528739542577739</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+        <v>-13.96760656331432</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>10.156316435523028</v>
+        <v>8.6481809221670591</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9307934922599357</v>
+        <v>-6.122883277386002</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4006036944301745</v>
+        <v>1.9726731105370772</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>12.951406945960047</v>
+        <v>-10.707270624826176</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1482883423429393</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+        <v>-21.842268398678435</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1561861748434339</v>
+        <v>-1.806267271966929</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.37295194385959</v>
+        <v>7.6436802793391436</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>3.140935224210696</v>
+        <v>-9.0960937914192357</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
-        <v>-15.923969071162627</v>
+        <v>-10.280503650986503</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0038408547038404</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+        <v>2.7534653701535001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73195805976463268</v>
+        <v>15.113478587487251</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>11.25554245520156</v>
+        <v>-11.577784052871269</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6894638773941586</v>
+        <v>2.0978232375577139</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>7.5975588861567891</v>
+        <v>-2.2616844054457181</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9614351897119904</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+        <v>-7.2454320267805308</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.064089081954583</v>
+        <v>-2.6059656140024154</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>10.863568281234553</v>
+        <v>-14.089230938661647</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>10.526026212559763</v>
+        <v>17.851944366009217</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2236845750235932</v>
+        <v>-22.813641048360687</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.371830593560901</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+        <v>-4.9328319215171152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>7.0654669265976526</v>
+        <v>-8.3216347196833809</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.0629897015383731</v>
+        <v>-3.29760049436132</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>10.305146713821864</v>
+        <v>7.7795924413446347</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>10.875614227964313</v>
+        <v>-11.036323322338678</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.6439598835636886</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+        <v>5.532522748597164</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>-20.124469800552024</v>
+        <v>-4.5023134264319644</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2444951184994233</v>
+        <v>-8.4012837444316144</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>10.949298232720523</v>
+        <v>12.950395384914696</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9370691584715181</v>
+        <v>0.55534990416773133</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.196628245171377</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+        <v>4.6899893743811019</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>-24.756519766344201</v>
+        <v>-4.287589706054443</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.511964256603523</v>
+        <v>-4.2523728096027389</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.119979997875169</v>
+        <v>-10.306899237628551</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>16.135974762686345</v>
+        <v>13.589577969516363</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>11.50107224533288</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+        <v>13.327208048747059</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>-14.049008328851498</v>
+        <v>-7.1620171141476163</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4810597496526059</v>
+        <v>0.14531751302682835</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>12.176028251334131</v>
+        <v>-16.718360528558229</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>11.896340038157584</v>
+        <v>4.0413526717809036</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.8896248343678315</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+        <v>0.1352221754783236</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>-11.91266351194756</v>
+        <v>-3.740226495749667E-2</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>18.453381392337079</v>
+        <v>1.6064723002754313</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1940598105302884</v>
+        <v>-11.14502985900649</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.55068010511117604</v>
+        <v>7.2113619621730587</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.9802087471900549</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+        <v>-16.970763766247131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.919899898590729</v>
+        <v>14.81592753857502</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>13.884105503128444</v>
+        <v>1.5949190707240166</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3637992724152728</v>
+        <v>1.9586523113858234</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
-        <v>6.8696374663307687</v>
+        <v>-20.514949320863828</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92677509412612813</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+        <v>-8.6679841395535</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>18.258430506565915</v>
+        <v>6.3315390676946306</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>24.926337920196502</v>
+        <v>23.02629452300112</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>10.475727311813614</v>
+        <v>1.8634725811948838</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="1"/>
-        <v>10.39569234945894</v>
+        <v>-25.675508884377688</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.81720320884675501</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+        <v>14.961371787821623</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.8040830482128123</v>
+        <v>-5.7501369354593983</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0794753703815507</v>
+        <v>-0.24563464290421061</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1165462882349173</v>
+        <v>16.552343678265235</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="1"/>
-        <v>9.717240683150802</v>
+        <v>-15.058129892368822</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.8366417087873366</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+        <v>2.0339266563338918</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.0015906512533554</v>
+        <v>4.5405389014306685</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.118382474016359</v>
+        <v>-2.2029953229843664</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9689377851658671</v>
+        <v>14.000154736017841</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="1"/>
-        <v>32.210132008279984</v>
+        <v>2.9486529089886204</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.7436961111623539</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+        <v>-10.237858480793152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>15.619181684632837</v>
+        <v>6.839383354956901</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>9.7761461436376944</v>
+        <v>3.5482683465210405</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5855416019294317</v>
+        <v>5.4129736410672642</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3495860744413108</v>
+        <v>-4.322261666468064</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9510050471243519</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+        <v>-11.23385216433314</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.0579940093370421</v>
+        <v>-1.1356396597666141</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>13.144647314867587</v>
+        <v>3.1103654573452655</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>9.1165705111872644</v>
+        <v>-17.125847919184828</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0309626642808611</v>
+        <v>1.2111024422682701</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7285833109958988</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+        <v>-13.112236447193229</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>25.145556203213317</v>
+        <v>8.3095746291389876</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4385057328663802</v>
+        <v>-13.924747081723911</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1474791040356602</v>
+        <v>1.049569646708495</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.48254930543244695</v>
+        <v>-8.5070700315836998</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19129431081032153</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+        <v>-2.1184024730989854</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8413029765858449</v>
+        <v>-5.4987972822677209</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2774376128486491</v>
+        <v>-8.8574601201427008</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.1768689941427457</v>
+        <v>-3.2689760245055504</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2692624698271757</v>
+        <v>-11.684540408613325</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.7309917768138519</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+        <v>6.7141411592338045</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1248,13 +1248,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>14</v>
       </c>
       <c r="B35">
         <f ca="1">INDEX($I$34:$I$38,RANDBETWEEN(1,ROWS($I$34:$I$38)),RANDBETWEEN(1,COLUMNS($I$34:$I$38)))</f>
-        <v>30</v>
+        <v>-60</v>
       </c>
       <c r="C35">
         <f t="shared" ref="C35:F35" ca="1" si="2">INDEX($I$34:$I$38,RANDBETWEEN(1,ROWS($I$34:$I$38)),RANDBETWEEN(1,COLUMNS($I$34:$I$38)))</f>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="2"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>-30</v>
+        <v>60</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
@@ -1294,29 +1294,29 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>15</v>
       </c>
       <c r="B36">
         <f t="shared" ref="B36:F64" ca="1" si="3">INDEX($I$34:$I$38,RANDBETWEEN(1,ROWS($I$34:$I$38)),RANDBETWEEN(1,COLUMNS($I$34:$I$38)))</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>60</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>-60</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1335,11 +1335,11 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>-30</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H37" t="s">
         <v>10</v>
@@ -1356,29 +1356,29 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>17</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>-30</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>-60</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -1387,25 +1387,25 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>18</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>-30</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
@@ -1418,42 +1418,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>60</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>-60</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>20</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
@@ -1461,39 +1461,39 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>30</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>21</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -1503,28 +1503,28 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>-60</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>23</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>60</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
@@ -1532,74 +1532,74 @@
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>24</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>-30</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>-60</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="3"/>
         <v>-30</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>25</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="3"/>
         <v>-60</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>26</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>-60</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
@@ -1607,78 +1607,78 @@
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>-30</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>27</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>-60</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>-30</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>28</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>-60</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>29</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
@@ -1686,14 +1686,14 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1703,22 +1703,22 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>60</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -1728,36 +1728,36 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>-60</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>32</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>-60</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>60</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="3"/>
@@ -1768,42 +1768,42 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>33</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>-30</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>34</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>-60</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="3"/>
@@ -1815,20 +1815,20 @@
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>35</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>60</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="3"/>
@@ -1836,14 +1836,14 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>-30</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>36</v>
       </c>
@@ -1853,11 +1853,11 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="3"/>
@@ -1868,13 +1868,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>37</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="3"/>
@@ -1886,74 +1886,74 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="3"/>
         <v>-30</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>38</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>30</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>39</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>40</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="3"/>
-        <v>-30</v>
+        <v>60</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>30</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="3"/>
@@ -1961,20 +1961,20 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>41</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="3"/>
@@ -1986,61 +1986,61 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>42</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>-60</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>-30</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>30</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="3"/>
         <v>-30</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>43</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>-60</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="3"/>
-        <v>-60</v>
+        <v>60</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>-30</v>
       </c>
     </row>
   </sheetData>
